--- a/res/tmp_radiation_vs_oh_order_xjxm_chu_yingji_df.xlsx
+++ b/res/tmp_radiation_vs_oh_order_xjxm_chu_yingji_df.xlsx
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>10033001</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="M2" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N2" t="n">
         <v>4.796260644137207e+18</v>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="P2" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>10033001</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="M3" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N3" t="n">
         <v>4.796260644137207e+18</v>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="P3" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>10033001</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N4" t="n">
         <v>4.796260644137207e+18</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="P4" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>10033001</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N5" t="n">
         <v>4.796260644137207e+18</v>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="P5" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>10033001</v>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N6" t="n">
         <v>4.796260644137207e+18</v>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="P6" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>10033001</v>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N7" t="n">
         <v>4.796260644137207e+18</v>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="P7" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>10033001</v>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N8" t="n">
         <v>4.796260644137207e+18</v>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="P8" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>10033001</v>
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N9" t="n">
         <v>4.796260644137207e+18</v>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="P9" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>10033001</v>
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N10" t="n">
         <v>4.796260644137207e+18</v>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="P10" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>10033001</v>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N11" t="n">
         <v>4.796260644137207e+18</v>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="P11" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>10033001</v>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N12" t="n">
         <v>4.796260644137207e+18</v>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="P12" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>10033001</v>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N13" t="n">
         <v>4.796260644137207e+18</v>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="P13" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>10033001</v>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N14" t="n">
         <v>4.796260644137207e+18</v>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="P14" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>10033001</v>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N15" t="n">
         <v>4.796260644137207e+18</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="P15" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>10033001</v>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N16" t="n">
         <v>4.796260644137207e+18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="P16" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>10033001</v>
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="N17" t="n">
         <v>4.796260644137207e+18</v>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="P17" s="2" t="n">
-        <v>44876.44027488785</v>
+        <v>44876.44753961043</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
